--- a/TestComponents/TestSets/Residues/FieldConfigs.xlsx
+++ b/TestComponents/TestSets/Residues/FieldConfigs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\SVSModelBuildDeploy\TestComponents\TestSets\Residues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83179B5E-D638-4DEB-95DA-8655619538FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A202DAF0-DB46-47EB-8CB1-3A627ACB2BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="25935" windowHeight="12510" xr2:uid="{D0D9F3F3-C1B3-4B79-AF5D-93A117BC34BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0D9F3F3-C1B3-4B79-AF5D-93A117BC34BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="78">
   <si>
     <t>StovN0.5High</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>InCropRain</t>
-  </si>
-  <si>
-    <t>Very Dry</t>
   </si>
   <si>
     <t>Irrigation</t>
@@ -363,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -379,13 +376,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -708,10 +702,10 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +716,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -756,45 +750,45 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>75</v>
+      <c r="A2" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="10"/>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -830,7 +824,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -866,7 +860,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -902,7 +896,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -938,7 +932,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -974,7 +968,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -1010,7 +1004,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="10"/>
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -1046,7 +1040,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="10"/>
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -1082,7 +1076,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="10"/>
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -1118,7 +1112,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="10"/>
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -1154,7 +1148,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="10"/>
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -1190,119 +1184,119 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="10"/>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>13</v>
@@ -1338,7 +1332,7 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1374,7 +1368,7 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1410,7 +1404,7 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -1446,7 +1440,7 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="5">
         <v>44831</v>
@@ -1482,43 +1476,43 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="5">
         <v>44951</v>
@@ -1554,153 +1548,153 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="3">
         <v>8</v>
@@ -1736,7 +1730,7 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1772,7 +1766,7 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1808,7 +1802,7 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31">
         <v>15</v>
@@ -1844,7 +1838,7 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="5">
         <v>45026</v>
@@ -1880,43 +1874,43 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="5">
         <v>45142</v>
@@ -1952,153 +1946,153 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
         <v>60</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" t="s">
-        <v>61</v>
       </c>
       <c r="C39">
         <v>10</v>
@@ -2132,117 +2126,117 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
+      <c r="A40" s="6"/>
       <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" t="s">
         <v>62</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" t="s">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" t="s">
         <v>63</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" t="s">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" t="s">
         <v>64</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" t="s">
-        <v>65</v>
       </c>
       <c r="C43" s="5">
         <v>45170</v>
@@ -2276,45 +2270,45 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
+      <c r="A44" s="6"/>
       <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44" t="s">
+        <v>39</v>
+      </c>
+      <c r="K44" t="s">
+        <v>39</v>
+      </c>
+      <c r="L44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" t="s">
         <v>66</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" t="s">
-        <v>40</v>
-      </c>
-      <c r="G44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K44" t="s">
-        <v>40</v>
-      </c>
-      <c r="L44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" t="s">
-        <v>67</v>
       </c>
       <c r="C45" s="5">
         <v>45200</v>
@@ -2348,111 +2342,111 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
+      <c r="A46" s="6"/>
       <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="D46" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" t="s">
+        <v>68</v>
+      </c>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+      <c r="J46" t="s">
+        <v>68</v>
+      </c>
+      <c r="K46" t="s">
+        <v>68</v>
+      </c>
+      <c r="L46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F46" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" t="s">
-        <v>69</v>
-      </c>
-      <c r="H46" t="s">
-        <v>69</v>
-      </c>
-      <c r="I46" t="s">
-        <v>69</v>
-      </c>
-      <c r="J46" t="s">
-        <v>69</v>
-      </c>
-      <c r="K46" t="s">
-        <v>69</v>
-      </c>
-      <c r="L46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>44</v>
+      </c>
+      <c r="G47" t="s">
+        <v>44</v>
+      </c>
+      <c r="H47" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" t="s">
+        <v>44</v>
+      </c>
+      <c r="J47" t="s">
+        <v>44</v>
+      </c>
+      <c r="K47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9"/>
+      <c r="B48" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47" t="s">
-        <v>45</v>
-      </c>
-      <c r="F47" t="s">
-        <v>45</v>
-      </c>
-      <c r="G47" t="s">
-        <v>45</v>
-      </c>
-      <c r="H47" t="s">
-        <v>45</v>
-      </c>
-      <c r="I47" t="s">
-        <v>45</v>
-      </c>
-      <c r="J47" t="s">
-        <v>45</v>
-      </c>
-      <c r="K47" t="s">
-        <v>45</v>
-      </c>
-      <c r="L47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
